--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3920.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3920.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.315964847734641</v>
+        <v>1.423324942588806</v>
       </c>
       <c r="B1">
-        <v>1.716557319112392</v>
+        <v>1.650299787521362</v>
       </c>
       <c r="C1">
-        <v>2.65819125079035</v>
+        <v>2.183262825012207</v>
       </c>
       <c r="D1">
-        <v>8.052513046674484</v>
+        <v>2.040988922119141</v>
       </c>
       <c r="E1">
-        <v>2.241738095037161</v>
+        <v>1.327208757400513</v>
       </c>
     </row>
   </sheetData>
